--- a/pandas_multiple.xlsx
+++ b/pandas_multiple.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28615"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawewutchujit/Desktop/DATAMINING/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>bin</t>
   </si>
@@ -155,50 +142,41 @@
     <t>12.0, 12.0, 12.0, 12.0, 12.0, 12.125, 12.25, 12.33, 12.335, 12.5, 12.5, 12.5, 12.5, 12.5, 12.5, 12.5, 12.5, 12.54, 12.625, 12.75, 12.75, 12.835, 13.0, 13.0, 13.0, 13.335, 13.5, 13.5, 13.5, 13.585, 13.665, 13.75, 13.915, 14.0, 14.0, 14.5, 14.5, 14.5, 14.585, 14.79, 15.0, 15.0, 15.0, 15.0, 15.0, 15.0, 15.5, 15.5, 16.0, 16.165, 16.5, 16.5, 17.75, 18.125, 18.5, 19.0, 19.0, 19.5, 19.5, 20.0, 21.0, 21.5, 22.0, 22.29, 25.085, 25.125, 25.21, 26.335, 28.0</t>
   </si>
   <si>
-    <t>0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.375</t>
-  </si>
-  <si>
-    <t>0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.75</t>
-  </si>
-  <si>
-    <t>0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 1.25</t>
-  </si>
-  <si>
-    <t>1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.835</t>
-  </si>
-  <si>
-    <t>2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.75</t>
-  </si>
-  <si>
-    <t>2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 4.0</t>
-  </si>
-  <si>
-    <t>4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 6.0</t>
-  </si>
-  <si>
-    <t>6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 9.415</t>
-  </si>
-  <si>
-    <t>9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 11.835</t>
-  </si>
-  <si>
-    <t>12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 28.0</t>
-  </si>
-  <si>
-    <t>  b.ให้ใช้ Equal-depth และ smooth by bin boundaries </t>
-  </si>
-  <si>
-    <t> a.ให้ใช้ Equal-width และ smoothing by bin mean</t>
-  </si>
-  <si>
-    <t>sum</t>
+    <t>0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375</t>
+  </si>
+  <si>
+    <t>0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.375, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75</t>
+  </si>
+  <si>
+    <t>0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 0.75, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25</t>
+  </si>
+  <si>
+    <t>1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.25, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835, 1.835</t>
+  </si>
+  <si>
+    <t>2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.0, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75</t>
+  </si>
+  <si>
+    <t>2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 2.75, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0, 4.0</t>
+  </si>
+  <si>
+    <t>4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 4.04, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0</t>
+  </si>
+  <si>
+    <t>6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 6.0, 9.415, 9.415, 9.415, 9.415, 9.415, 9.415, 9.415, 9.415, 9.415, 9.415, 9.415, 9.415, 9.415, 9.415, 9.415, 9.415, 9.415, 9.415, 9.415, 9.415, 9.415, 9.415, 9.415, 9.415, 9.415, 9.415</t>
+  </si>
+  <si>
+    <t>9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 9.5, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835, 11.835</t>
+  </si>
+  <si>
+    <t>12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 12.0, 28.0, 28.0, 28.0, 28.0, 28.0, 28.0, 28.0, 28.0, 28.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,12 +191,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF3A3A3A"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -256,26 +228,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -322,12 +285,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -354,15 +317,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -389,7 +351,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -565,291 +526,377 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>350</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>350</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>132</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>82</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B22">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>350</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B27">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B35">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13">
-        <f>SUM(B3:B12)</f>
-        <v>690</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>350</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>132</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>82</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26">
-        <f>SUM(B16:B25)</f>
-        <v>690</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,7 +907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -871,7 +918,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -882,7 +929,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -893,7 +940,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -904,7 +951,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -915,7 +962,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -926,7 +973,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -937,7 +984,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -948,7 +995,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -959,7 +1006,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -968,145 +1015,6 @@
       </c>
       <c r="C47" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48">
-        <f>SUM(B38:B47)</f>
-        <v>690</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51">
-        <v>69</v>
-      </c>
-      <c r="C51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52">
-        <v>69</v>
-      </c>
-      <c r="C52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53">
-        <v>69</v>
-      </c>
-      <c r="C53" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54">
-        <v>69</v>
-      </c>
-      <c r="C54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55">
-        <v>69</v>
-      </c>
-      <c r="C55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56">
-        <v>69</v>
-      </c>
-      <c r="C56" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57">
-        <v>69</v>
-      </c>
-      <c r="C57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58">
-        <v>69</v>
-      </c>
-      <c r="C58" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59">
-        <v>69</v>
-      </c>
-      <c r="C59" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60">
-        <v>69</v>
-      </c>
-      <c r="C60" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61">
-        <f>SUM(B51:B60)</f>
-        <v>690</v>
       </c>
     </row>
   </sheetData>
